--- a/batalh_fph.xlsx
+++ b/batalh_fph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f182f256d3d26c6c/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\fph_lin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{BB88DCEE-8BEC-4D9E-8946-687E74347CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F4EE131-8B82-4CFD-A709-368E8A9CAA79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27133EFC-D6E3-47B3-9357-B22F8AF923F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cortes_FPH_Linear_V_Faixa" sheetId="42" r:id="rId1"/>
@@ -62,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -567,13 +567,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -935,7 +935,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F11"/>
+      <selection activeCell="B2" sqref="B2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>0.25411004305986162</v>
+        <v>0.33078890632101188</v>
       </c>
       <c r="D2" s="5">
-        <v>1.5924307595769779E-2</v>
+        <v>7.3423145449370833E-3</v>
       </c>
       <c r="E2" s="5">
-        <v>-1.9618914340482411E-2</v>
+        <v>-9.8824612853326537E-3</v>
       </c>
       <c r="F2" s="5">
-        <v>-6.848248287172269</v>
+        <v>-7.126993731794169</v>
       </c>
       <c r="G2" s="4">
         <v>5.4979942952878798</v>
@@ -1005,16 +1005,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>0.28243873538306041</v>
+        <v>0.3222655664012315</v>
       </c>
       <c r="D3" s="5">
-        <v>1.039154513014799E-2</v>
+        <v>1.098420155887987E-2</v>
       </c>
       <c r="E3" s="5">
-        <v>-1.663630151690241E-3</v>
+        <v>-9.8824612853326537E-3</v>
       </c>
       <c r="F3" s="5">
-        <v>-4.4688838563702271</v>
+        <v>-10.33393013224136</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
@@ -1027,16 +1027,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="5">
-        <v>0.27028896124977603</v>
+        <v>0.35564551173866898</v>
       </c>
       <c r="D4" s="5">
-        <v>1.22373778172213E-2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>-5.2583760047656353E-3</v>
+        <v>-2.0506101104544549E-2</v>
       </c>
       <c r="F4" s="5">
-        <v>-5.2626841809139604</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
@@ -1049,16 +1049,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>0.3853218650333759</v>
+        <v>0.3471221718188886</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>1.2139623379809211E-3</v>
       </c>
       <c r="E5" s="5">
-        <v>-1.203368926071469E-2</v>
+        <v>-1.4832062137774349E-2</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>-1.1783616624529041</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2"/>
@@ -1071,16 +1071,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>0.37700197276683012</v>
+        <v>0.33250693981833801</v>
       </c>
       <c r="D6" s="5">
-        <v>2.3699713874383971E-4</v>
+        <v>6.363530180698216E-3</v>
       </c>
       <c r="E6" s="5">
-        <v>-6.4950866279420956E-3</v>
+        <v>-9.8824612853326138E-3</v>
       </c>
       <c r="F6" s="5">
-        <v>-0.10192061662375659</v>
+        <v>-6.1769132107248614</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1093,16 +1093,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="5">
-        <v>0.36273559868817068</v>
+        <v>0.3394320597181758</v>
       </c>
       <c r="D7" s="5">
-        <v>1.2423272106150459E-3</v>
+        <v>3.404537054695329E-3</v>
       </c>
       <c r="E7" s="5">
-        <v>-1.6636301516902E-3</v>
+        <v>-1.1419159361089131E-2</v>
       </c>
       <c r="F7" s="5">
-        <v>-0.53426280175987151</v>
+        <v>-3.3046955561453042</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1115,16 +1115,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="5">
-        <v>0.36949541960835408</v>
+        <v>0.30765033440068079</v>
       </c>
       <c r="D8" s="5">
-        <v>6.6465450818858364E-4</v>
+        <v>1.533195573047239E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>-3.1636480504052102E-3</v>
+        <v>-1.1706636360894321E-2</v>
       </c>
       <c r="F8" s="5">
-        <v>-0.28583466313304862</v>
+        <v>-13.162192027492569</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1137,16 +1137,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="5">
-        <v>0.23107793424503001</v>
+        <v>0.30910872394974231</v>
       </c>
       <c r="D9" s="5">
-        <v>2.1452334465793359E-2</v>
+        <v>1.450109364902144E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>-5.1916291788405552E-2</v>
+        <v>-1.073577761209539E-2</v>
       </c>
       <c r="F9" s="5">
-        <v>-7.5464964133992787</v>
+        <v>-12.524139811312599</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1159,16 +1159,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="5">
-        <v>0.23783775516521319</v>
+        <v>0.31176065096703981</v>
       </c>
       <c r="D10" s="5">
-        <v>2.0682104195891421E-2</v>
+        <v>1.374567627687087E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>-4.7416238092260511E-2</v>
+        <v>-1.0147309657248331E-2</v>
       </c>
       <c r="F10" s="5">
-        <v>-7.9960182115113376</v>
+        <v>-12.097173389474699</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1181,16 +1181,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="5">
-        <v>0.2536642005902352</v>
+        <v>0.31457545430051881</v>
       </c>
       <c r="D11" s="5">
-        <v>1.612750905318636E-2</v>
+        <v>1.321113382945358E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>-2.0806114461331859E-2</v>
+        <v>-9.9391061445895153E-3</v>
       </c>
       <c r="F11" s="5">
-        <v>-6.9356350714537891</v>
+        <v>-11.90341672593439</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1203,16 +1203,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="5">
-        <v>0.2453443083236892</v>
+        <v>0.31495835883614498</v>
       </c>
       <c r="D12" s="5">
-        <v>1.897147471811244E-2</v>
+        <v>1.30657036140162E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>-3.742192235964973E-2</v>
+        <v>-9.8824612853325722E-3</v>
       </c>
       <c r="F12" s="5">
-        <v>-7.8383666186768481</v>
+        <v>-11.79173504815542</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
